--- a/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/runtimes_12_datasets_TPE_150_50_trees.xlsx
+++ b/results/basic_metrics_runtimes/TPE_tuning_150_50_trees/runtimes_12_datasets_TPE_150_50_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p\Documents\M\2 stopień\masters thesis\boost\results\basic_metrics_runtimes\TPE_tuning_150_50_trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF8A4A5-B6F2-4E29-9D03-C963CE47CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9A409-F55A-4F03-AC31-E09A4C3B2ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,12 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,16 +458,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>111.1839554309845</v>
+        <v>109.4167172908783</v>
       </c>
       <c r="B2">
-        <v>85.092222213745117</v>
+        <v>170.09396004676819</v>
       </c>
       <c r="C2">
-        <v>14.4133734703064</v>
+        <v>14.934543132781981</v>
       </c>
       <c r="D2">
-        <v>180.61238980293271</v>
+        <v>170.93715929985049</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -476,16 +475,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.379851818084717</v>
+        <v>1.356091976165771</v>
       </c>
       <c r="B3">
-        <v>39.538329362869263</v>
+        <v>24.786891937255859</v>
       </c>
       <c r="C3">
-        <v>0.92904210090637207</v>
+        <v>1.033824682235718</v>
       </c>
       <c r="D3">
-        <v>2.553676843643188</v>
+        <v>3.1565861701965332</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -493,16 +492,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27.713247776031491</v>
+        <v>26.882259368896481</v>
       </c>
       <c r="B4">
-        <v>44.039570808410637</v>
+        <v>51.845715522766113</v>
       </c>
       <c r="C4">
-        <v>11.327285051345831</v>
+        <v>11.39080333709717</v>
       </c>
       <c r="D4">
-        <v>21.824621438980099</v>
+        <v>21.514628648757931</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -510,16 +509,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11.236834287643431</v>
+        <v>11.24188494682312</v>
       </c>
       <c r="B5">
-        <v>35.104889392852783</v>
+        <v>86.12848949432373</v>
       </c>
       <c r="C5">
-        <v>5.6645710468292236</v>
+        <v>6.058922290802002</v>
       </c>
       <c r="D5">
-        <v>18.52570629119873</v>
+        <v>18.243011236190799</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -527,16 +526,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3.608173131942749</v>
+        <v>3.5003128051757808</v>
       </c>
       <c r="B6">
-        <v>19.84820199012756</v>
+        <v>29.67258620262146</v>
       </c>
       <c r="C6">
-        <v>0.4588005542755127</v>
+        <v>0.89464473724365234</v>
       </c>
       <c r="D6">
-        <v>105.4117541313171</v>
+        <v>104.5816335678101</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -544,16 +543,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11.668697834014891</v>
+        <v>11.491165637969971</v>
       </c>
       <c r="B7">
-        <v>41.45263147354126</v>
+        <v>72.039641618728638</v>
       </c>
       <c r="C7">
-        <v>5.6277523040771484</v>
+        <v>6.0994770526885986</v>
       </c>
       <c r="D7">
-        <v>16.32915902137756</v>
+        <v>16.385441780090328</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -561,16 +560,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>430.83687806129461</v>
+        <v>431.60133337974548</v>
       </c>
       <c r="B8">
-        <v>97.168561458587646</v>
+        <v>108.61535978317259</v>
       </c>
       <c r="C8">
-        <v>7.5090305805206299</v>
+        <v>7.3583984375</v>
       </c>
       <c r="D8">
-        <v>240.2632694244385</v>
+        <v>229.35275721549991</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -578,16 +577,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>63.561464071273797</v>
+        <v>63.08512544631958</v>
       </c>
       <c r="B9">
-        <v>127.0448200702667</v>
+        <v>146.27328681945801</v>
       </c>
       <c r="C9">
-        <v>15.11000609397888</v>
+        <v>14.41402983665466</v>
       </c>
       <c r="D9">
-        <v>236.97774386405939</v>
+        <v>226.2061040401459</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -595,16 +594,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>19.283560037612919</v>
+        <v>19.56919693946838</v>
       </c>
       <c r="B10">
-        <v>59.544331550598137</v>
+        <v>90.371308565139771</v>
       </c>
       <c r="C10">
-        <v>5.378896951675415</v>
+        <v>3.329658985137939</v>
       </c>
       <c r="D10">
-        <v>70.925110578536987</v>
+        <v>67.287684679031372</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -612,16 +611,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>64.210528612136841</v>
+        <v>61.801605224609382</v>
       </c>
       <c r="B11">
-        <v>88.451910018920898</v>
+        <v>124.2164630889893</v>
       </c>
       <c r="C11">
-        <v>20.2587456703186</v>
+        <v>18.72080397605896</v>
       </c>
       <c r="D11">
-        <v>224.78420662879941</v>
+        <v>212.26496911048889</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -629,35 +628,35 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>581.83631587028503</v>
+        <v>552.59260940551758</v>
       </c>
       <c r="B12">
-        <v>514.00313997268677</v>
+        <v>639.35310506820679</v>
       </c>
       <c r="C12">
-        <v>262.95355224609381</v>
+        <v>226.58348870277399</v>
       </c>
       <c r="D12">
-        <v>5271.9900186061859</v>
+        <v>5253.7760457992554</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>124.3451149463654</v>
-      </c>
-      <c r="B13" s="2">
-        <v>141.6481800079346</v>
-      </c>
-      <c r="C13" s="2">
-        <v>125.3943581581116</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2691.8661549091339</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="A13">
+        <v>127.3657405376434</v>
+      </c>
+      <c r="B13">
+        <v>173.6004521846771</v>
+      </c>
+      <c r="C13">
+        <v>124.23669981956481</v>
+      </c>
+      <c r="D13">
+        <v>2793.7186591625209</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
     </row>
